--- a/biology/Botanique/Ancolie_des_Alpes/Ancolie_des_Alpes.xlsx
+++ b/biology/Botanique/Ancolie_des_Alpes/Ancolie_des_Alpes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aquilegia alpina
 L'ancolie des Alpes (Aquilegia alpina) est une espèce de plante herbacée vivace de la famille des Renonculacées.
@@ -512,10 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ancolie des Alpes est une endémique des Alpes occidentales et des Apennins. La plante porte de une à cinq très grandes fleurs d'un beau bleu, à pétales tronqués et à gros éperons un peu arqués, et à étamines un peu plus courtes que les pétales.
-Détail de la fleur
 </t>
         </is>
       </c>
@@ -541,10 +554,44 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Détail de la fleur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ancolie_des_Alpes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ancolie_des_Alpes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs :
 Type d'inflorescence : cyme unipare hélicoïde
@@ -562,31 +609,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Ancolie_des_Alpes</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ancolie_des_Alpes</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante protégée (voir INPN).
 L'ancolie des Pyrénées (Aquilegia pyrenaica) est une espèce voisine aux fleurs plus violacées, endémique de ce massif.
